--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\PycharmProjects\APConfigAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB12360-EC41-455F-A3BD-B70BB09ACD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30644A0-95A4-4536-9B97-6848012DB8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4305" yWindow="3960" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -39,10 +39,16 @@
     <t>description</t>
   </si>
   <si>
-    <t>scanned_MAC</t>
-  </si>
-  <si>
     <t>static_IP</t>
+  </si>
+  <si>
+    <t>00:33:58:33:A3:30</t>
+  </si>
+  <si>
+    <t>192.168.0.223</t>
+  </si>
+  <si>
+    <t>ap_testowy</t>
   </si>
 </sst>
 </file>
@@ -360,19 +366,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,18 +388,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\PycharmProjects\APConfigAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamilmroz/PSI/APConfigAutomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30644A0-95A4-4536-9B97-6848012DB8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF5B89-FE58-064B-B5C5-BB8CD8C761F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3960" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -36,29 +36,47 @@
     <t>AP_01_01</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>static_IP</t>
   </si>
   <si>
     <t>00:33:58:33:A3:30</t>
   </si>
   <si>
-    <t>192.168.0.223</t>
-  </si>
-  <si>
-    <t>ap_testowy</t>
+    <t>AP_02_02</t>
+  </si>
+  <si>
+    <t>AP_03_03</t>
+  </si>
+  <si>
+    <t>192.168.0.224</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>192.168.0.226</t>
+  </si>
+  <si>
+    <t>00:33:58:33:ae:10</t>
+  </si>
+  <si>
+    <t>00:33:58:33:ba:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,21 +384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,27 +406,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamilmroz/PSI/APConfigAutomation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF5B89-FE58-064B-B5C5-BB8CD8C761F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59154B14-11F7-44DE-801C-1C5B5E11A25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="4305" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -39,28 +39,10 @@
     <t>static_IP</t>
   </si>
   <si>
-    <t>00:33:58:33:A3:30</t>
-  </si>
-  <si>
-    <t>AP_02_02</t>
-  </si>
-  <si>
-    <t>AP_03_03</t>
-  </si>
-  <si>
-    <t>192.168.0.224</t>
-  </si>
-  <si>
-    <t>192.168.0.225</t>
-  </si>
-  <si>
-    <t>192.168.0.226</t>
-  </si>
-  <si>
-    <t>00:33:58:33:ae:10</t>
-  </si>
-  <si>
-    <t>00:33:58:33:ba:20</t>
+    <t>00:00:00:00:00:00</t>
+  </si>
+  <si>
+    <t>192.168.0.111</t>
   </si>
 </sst>
 </file>
@@ -384,21 +366,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -417,29 +399,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
